--- a/github记账项目借口文档.xlsx
+++ b/github记账项目借口文档.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19620" windowHeight="8670" activeTab="4"/>
+    <workbookView windowWidth="13920" windowHeight="12885" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据库说明" sheetId="1" r:id="rId1"/>
     <sheet name="用户接口" sheetId="2" r:id="rId2"/>
-    <sheet name="账本接口" sheetId="3" r:id="rId3"/>
-    <sheet name="事项接口" sheetId="4" r:id="rId4"/>
-    <sheet name="记录接口" sheetId="5" r:id="rId5"/>
+    <sheet name="文件接口" sheetId="3" r:id="rId3"/>
+    <sheet name="账本接口" sheetId="4" r:id="rId4"/>
+    <sheet name="事项接口" sheetId="5" r:id="rId5"/>
+    <sheet name="记录接口" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>用户表(tb_user)</t>
   </si>
@@ -238,13 +239,41 @@
 密码：</t>
   </si>
   <si>
+    <t>根据uid获取所有文件</t>
+  </si>
+  <si>
+    <t>/file/get</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>用户uid，如果有登录可以不填</t>
+  </si>
+  <si>
+    <t>list&lt;files&gt;</t>
+  </si>
+  <si>
+    <t>文件列表</t>
+  </si>
+  <si>
+    <t>上传文件</t>
+  </si>
+  <si>
+    <t>/file/upload</t>
+  </si>
+  <si>
+    <t>file:
+name:</t>
+  </si>
+  <si>
+    <t>name真实环境可以不填</t>
+  </si>
+  <si>
     <t>获取账本</t>
   </si>
   <si>
     <t>/book/getBooks</t>
-  </si>
-  <si>
-    <t>get</t>
   </si>
   <si>
     <t>成功:status:0
@@ -404,8 +433,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -426,7 +455,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,17 +477,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,23 +500,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,14 +508,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,19 +535,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,25 +560,41 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -578,13 +607,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,25 +727,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,139 +775,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,56 +804,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,90 +850,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,76 +990,73 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1356,11 +1382,11 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="20.8740740740741" customWidth="1"/>
+    <col min="2" max="2" width="15.8740740740741" customWidth="1"/>
+    <col min="3" max="3" width="21.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1673,14 +1699,14 @@
       <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="19.6222222222222" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="6" width="22.375" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="21.6222222222222" customWidth="1"/>
+    <col min="4" max="4" width="26.5037037037037" customWidth="1"/>
+    <col min="5" max="6" width="22.3777777777778" customWidth="1"/>
+    <col min="7" max="7" width="14.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1716,16 +1742,16 @@
       <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1739,16 +1765,16 @@
       <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1761,47 +1787,46 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="12.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="12.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="13.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="66" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1812,56 +1837,33 @@
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
       <c r="G2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" ht="71" customHeight="1" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="4" ht="76" customHeight="1" spans="1:6">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1873,89 +1875,107 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="23.3777777777778" customWidth="1"/>
+    <col min="2" max="2" width="17.8740740740741" customWidth="1"/>
+    <col min="3" max="3" width="15.1259259259259" customWidth="1"/>
+    <col min="4" max="4" width="12.1259259259259" customWidth="1"/>
+    <col min="5" max="5" width="16.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="21.7481481481481" customWidth="1"/>
+    <col min="7" max="7" width="22.6222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="17" customHeight="1" spans="1:7">
+      <c r="A1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="74" customHeight="1" spans="1:7">
+    <row r="2" ht="66" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" ht="78" customHeight="1" spans="1:7">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" ht="71" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" ht="76" customHeight="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>95</v>
+      <c r="F4" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1967,107 +1987,201 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="19.3777777777778" customWidth="1"/>
+    <col min="4" max="4" width="11.6222222222222" customWidth="1"/>
+    <col min="5" max="5" width="14.3777777777778" customWidth="1"/>
+    <col min="6" max="6" width="16.8740740740741" customWidth="1"/>
+    <col min="7" max="7" width="13.8740740740741" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="74" customHeight="1" spans="1:7">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" ht="78" customHeight="1" spans="1:7">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="16.3777777777778" customWidth="1"/>
+    <col min="2" max="2" width="19.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="15.2518518518519" customWidth="1"/>
+    <col min="7" max="7" width="14.8740740740741" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" ht="80" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>99</v>
+      <c r="F2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>105</v>
+      <c r="D3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" ht="73" customHeight="1" spans="1:6">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>108</v>
+      <c r="D4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/github记账项目借口文档.xlsx
+++ b/github记账项目借口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13920" windowHeight="12885" activeTab="2"/>
+    <workbookView windowWidth="19620" windowHeight="12885" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据库说明" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>用户表(tb_user)</t>
   </si>
@@ -268,6 +268,24 @@
   </si>
   <si>
     <t>name真实环境可以不填</t>
+  </si>
+  <si>
+    <t>获取所有文件json</t>
+  </si>
+  <si>
+    <t>status:
+files</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+  </si>
+  <si>
+    <t>file
+uid</t>
+  </si>
+  <si>
+    <t>status
+statusCode</t>
   </si>
   <si>
     <t>获取账本</t>
@@ -433,10 +451,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -455,6 +473,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -463,14 +495,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,9 +524,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,45 +579,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,14 +593,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -582,19 +608,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -607,187 +625,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,58 +822,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,8 +846,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,153 +881,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1787,13 +1805,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="12.5555555555556" customWidth="1"/>
@@ -1804,25 +1822,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1859,11 +1877,68 @@
       <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:6">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:6">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1917,10 +1992,10 @@
     </row>
     <row r="2" ht="66" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -1932,50 +2007,50 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="71" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" ht="76" customHeight="1" spans="1:6">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2028,48 +2103,48 @@
     </row>
     <row r="2" ht="74" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" ht="78" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2120,10 +2195,10 @@
     </row>
     <row r="2" ht="80" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -2135,53 +2210,53 @@
         <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" ht="73" customHeight="1" spans="1:6">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/github记账项目借口文档.xlsx
+++ b/github记账项目借口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19620" windowHeight="12885" activeTab="2"/>
+    <workbookView windowWidth="19590" windowHeight="12885" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据库说明" sheetId="1" r:id="rId1"/>
@@ -281,7 +281,7 @@
   </si>
   <si>
     <t>file
-uid</t>
+name</t>
   </si>
   <si>
     <t>status
@@ -452,18 +452,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -480,14 +473,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,22 +495,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,22 +535,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,14 +551,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,24 +572,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,6 +586,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -625,187 +618,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,30 +821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -867,28 +836,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,164 +868,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1808,7 +1795,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1885,25 +1872,25 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1920,7 +1907,7 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1934,10 +1921,10 @@
       <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>84</v>
       </c>
     </row>

--- a/github记账项目借口文档.xlsx
+++ b/github记账项目借口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19590" windowHeight="12885" activeTab="2"/>
+    <workbookView windowWidth="19095" windowHeight="7845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据库说明" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>用户表(tb_user)</t>
   </si>
@@ -286,6 +286,24 @@
   <si>
     <t>status
 statusCode</t>
+  </si>
+  <si>
+    <t>新建文件夹</t>
+  </si>
+  <si>
+    <t>/file/newFolder</t>
+  </si>
+  <si>
+    <t>name
+uid</t>
+  </si>
+  <si>
+    <t>名字
+用户uid</t>
+  </si>
+  <si>
+    <t>status
+file</t>
   </si>
   <si>
     <t>获取账本</t>
@@ -451,10 +469,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -466,21 +484,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,19 +505,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,39 +552,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,6 +582,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -603,7 +621,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,31 +642,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,145 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,15 +827,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -832,6 +841,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,6 +902,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -898,101 +927,90 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,7 +1019,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1010,52 +1028,52 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1792,16 +1810,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="12.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="12.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
@@ -1926,6 +1944,26 @@
       </c>
       <c r="F13" s="1" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="14" ht="33" spans="1:6">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1979,10 +2017,10 @@
     </row>
     <row r="2" ht="66" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -1994,50 +2032,50 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" ht="71" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" ht="76" customHeight="1" spans="1:6">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2090,48 +2128,48 @@
     </row>
     <row r="2" ht="74" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" ht="78" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2182,10 +2220,10 @@
     </row>
     <row r="2" ht="80" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -2197,53 +2235,53 @@
         <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" ht="73" customHeight="1" spans="1:6">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/github记账项目借口文档.xlsx
+++ b/github记账项目借口文档.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\czh\springtest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7845" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据库说明" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="128">
   <si>
     <t>用户表(tb_user)</t>
   </si>
@@ -199,9 +204,6 @@
   </si>
   <si>
     <t>登录借口</t>
-  </si>
-  <si>
-    <t>/user/login</t>
   </si>
   <si>
     <t>post</t>
@@ -226,9 +228,6 @@
   </si>
   <si>
     <t>注册借口</t>
-  </si>
-  <si>
-    <t>/user/registered</t>
   </si>
   <si>
     <t>account:
@@ -463,18 +462,20 @@
 失败:status:1
 statusCode:</t>
   </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/registered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -483,345 +484,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -829,251 +506,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,58 +520,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1145,10 +541,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="555555"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F9F9F9"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1397,27 +793,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.8740740740741" customWidth="1"/>
-    <col min="2" max="2" width="15.8740740740741" customWidth="1"/>
-    <col min="3" max="3" width="21.2518518518519" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1428,7 +823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1439,7 +834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1450,7 +845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1461,7 +856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1472,7 +867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1483,7 +878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1494,7 +889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1505,7 +900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1516,12 +911,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1532,7 +927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1543,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1565,12 +960,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1581,7 +976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1592,7 +987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1603,7 +998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1614,7 +1009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1625,7 +1020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1636,12 +1031,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1652,7 +1047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1663,7 +1058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1674,7 +1069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1685,7 +1080,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1696,7 +1091,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -1708,31 +1103,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.6222222222222" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="21.6222222222222" customWidth="1"/>
-    <col min="4" max="4" width="26.5037037037037" customWidth="1"/>
-    <col min="5" max="6" width="22.3777777777778" customWidth="1"/>
-    <col min="7" max="7" width="14.5037037037037" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1755,78 +1149,77 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="81" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" ht="91" customHeight="1" spans="1:7">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>65</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="13.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1849,47 +1242,47 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" ht="33" customHeight="1" spans="1:5">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1912,87 +1305,86 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" ht="28.5" spans="1:6">
+    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:6">
-      <c r="A13" t="s">
+      <c r="F13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="B14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" ht="33" spans="1:6">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.3777777777778" customWidth="1"/>
-    <col min="2" max="2" width="17.8740740740741" customWidth="1"/>
-    <col min="3" max="3" width="15.1259259259259" customWidth="1"/>
-    <col min="4" max="4" width="12.1259259259259" customWidth="1"/>
-    <col min="5" max="5" width="16.5037037037037" customWidth="1"/>
-    <col min="6" max="6" width="21.7481481481481" customWidth="1"/>
-    <col min="7" max="7" width="22.6222222222222" customWidth="1"/>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2015,15 +1407,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="66" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -2032,78 +1424,77 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>92</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" ht="71" customHeight="1" spans="1:6">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" ht="76" customHeight="1" spans="1:6">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="19.3777777777778" customWidth="1"/>
-    <col min="4" max="4" width="11.6222222222222" customWidth="1"/>
-    <col min="5" max="5" width="14.3777777777778" customWidth="1"/>
-    <col min="6" max="6" width="16.8740740740741" customWidth="1"/>
-    <col min="7" max="7" width="13.8740740740741" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2126,76 +1517,75 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="74" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" ht="78" customHeight="1" spans="1:7">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>114</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3777777777778" customWidth="1"/>
-    <col min="2" max="2" width="19.5037037037037" customWidth="1"/>
-    <col min="6" max="6" width="15.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="14.8740740740741" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2218,15 +1608,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="80" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -2235,57 +1625,57 @@
         <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" ht="75" customHeight="1" spans="1:7">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" ht="73" customHeight="1" spans="1:6">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>127</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>